--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.012720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.012720.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6203,12 +6203,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7089,12 +7089,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7551,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7677,12 +7677,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7845,12 +7845,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8265,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8433,12 +8433,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9777,12 +9777,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9987,12 +9987,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10113,12 +10113,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10365,12 +10365,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10995,12 +10995,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11415,12 +11415,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11541,12 +11541,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11625,12 +11625,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12595,12 +12595,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12889,12 +12889,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13267,12 +13267,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13309,12 +13309,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13855,12 +13855,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13939,12 +13939,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14317,12 +14317,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14737,12 +14737,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14993,12 +14993,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15875,12 +15875,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16001,12 +16001,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16215,12 +16215,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16257,12 +16257,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17055,12 +17055,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18407,12 +18407,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18621,12 +18621,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18663,12 +18663,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
